--- a/data/motors-model/motors-data.xlsx
+++ b/data/motors-model/motors-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inesctecpt-my.sharepoint.com/personal/ricardo_b_sousa_office365_inesctec_pt/Documents/inesctec/projects/trajectory-control/doc/motor-model/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://inesctecpt-my.sharepoint.com/personal/ricardo_b_sousa_office365_inesctec_pt/Documents/inesctec/projects/trajectory-control/git/omni-control/data/motors-model/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="562" documentId="8_{7A33847B-2FBC-4C71-8F38-B3B965040B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C33BA214-0DD2-4006-A0AA-4E8187200C8E}"/>
+  <xr:revisionPtr revIDLastSave="618" documentId="8_{7A33847B-2FBC-4C71-8F38-B3B965040B33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F97600C-878F-4A2B-95C7-7BD357542964}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="5" activeTab="13" xr2:uid="{0A4357D0-BA1A-40AE-AD8D-DAAF22106C7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="10" activeTab="11" xr2:uid="{0A4357D0-BA1A-40AE-AD8D-DAAF22106C7A}"/>
   </bookViews>
   <sheets>
     <sheet name="M1-Run 1" sheetId="8" r:id="rId1"/>
@@ -29,6 +29,15 @@
     <sheet name="Simulation Controllers" sheetId="19" r:id="rId14"/>
     <sheet name="Example" sheetId="10" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_eng" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_num" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_opt" localSheetId="11" hidden="1">'Simulation Parameters'!$A$59</definedName>
+    <definedName name="solver_typ" localSheetId="11" hidden="1">1</definedName>
+    <definedName name="solver_val" localSheetId="11" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="11" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -70,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="772" uniqueCount="149">
   <si>
     <t>Model of the Motor</t>
   </si>
@@ -715,10 +724,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,24 +1251,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1267,7 +1276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1278,7 +1287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1297,7 +1306,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1332,7 +1341,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -1358,7 +1367,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K29,J13:J29)</f>
         <v>3.2156936719037885</v>
@@ -1386,7 +1395,7 @@
         <v>2.3159440999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -1443,7 +1452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.7</v>
       </c>
@@ -1507,7 +1516,7 @@
         <v>3.3222999999999998E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.7</v>
       </c>
@@ -1571,7 +1580,7 @@
         <v>3.8335000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.7</v>
       </c>
@@ -1635,7 +1644,7 @@
         <v>4.3445999999999997E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.7</v>
       </c>
@@ -1699,7 +1708,7 @@
         <v>4.6001999999999996E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.7</v>
       </c>
@@ -1763,7 +1772,7 @@
         <v>4.6001999999999996E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.7</v>
       </c>
@@ -1827,7 +1836,7 @@
         <v>5.1113E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.7</v>
       </c>
@@ -1891,7 +1900,7 @@
         <v>5.6223999999999996E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.7</v>
       </c>
@@ -1955,7 +1964,7 @@
         <v>5.8780000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28.7</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>6.3891E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28.7</v>
       </c>
@@ -2083,7 +2092,7 @@
         <v>6.9002000000000004E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28.7</v>
       </c>
@@ -2147,7 +2156,7 @@
         <v>7.4114000000000003E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28.7</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>8.4335999999999994E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28.7</v>
       </c>
@@ -2275,7 +2284,7 @@
         <v>9.7114000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>28.7</v>
       </c>
@@ -2339,7 +2348,7 @@
         <v>1.0734E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28.7</v>
       </c>
@@ -2403,7 +2412,7 @@
         <v>1.1756000000000001E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28.7</v>
       </c>
@@ -2467,7 +2476,7 @@
         <v>1.2012E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28.7</v>
       </c>
@@ -2549,24 +2558,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2583,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2585,7 +2594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -2596,7 +2605,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2616,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -2615,7 +2624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2642,7 +2651,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -2668,7 +2677,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K25,J13:J25)</f>
         <v>2.8061054518150397</v>
@@ -2687,7 +2696,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -2744,7 +2753,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.4</v>
       </c>
@@ -2796,7 +2805,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.4</v>
       </c>
@@ -2848,7 +2857,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.4</v>
       </c>
@@ -2900,7 +2909,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.4</v>
       </c>
@@ -2952,7 +2961,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.4</v>
       </c>
@@ -3004,7 +3013,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.4</v>
       </c>
@@ -3056,7 +3065,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.4</v>
       </c>
@@ -3108,7 +3117,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.4</v>
       </c>
@@ -3160,7 +3169,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28.4</v>
       </c>
@@ -3212,7 +3221,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28.4</v>
       </c>
@@ -3264,7 +3273,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28.4</v>
       </c>
@@ -3316,7 +3325,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28.4</v>
       </c>
@@ -3368,7 +3377,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28.4</v>
       </c>
@@ -3440,24 +3449,24 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -3465,7 +3474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -3476,7 +3485,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3487,7 +3496,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -3498,7 +3507,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3506,7 +3515,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -3533,7 +3542,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -3559,7 +3568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K34,J13:J34)</f>
         <v>4.9813055797606225</v>
@@ -3587,7 +3596,7 @@
         <v>2.7993190999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -3644,7 +3653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.7</v>
       </c>
@@ -3708,7 +3717,7 @@
         <v>2.3890000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.65</v>
       </c>
@@ -3772,7 +3781,7 @@
         <v>2.9199E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.65</v>
       </c>
@@ -3836,7 +3845,7 @@
         <v>3.3181E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.6</v>
       </c>
@@ -3900,7 +3909,7 @@
         <v>3.7163000000000001E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.6</v>
       </c>
@@ -3964,7 +3973,7 @@
         <v>4.1145000000000001E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.6</v>
       </c>
@@ -4028,7 +4037,7 @@
         <v>4.5126000000000003E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.6</v>
       </c>
@@ -4092,7 +4101,7 @@
         <v>5.0435000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.6</v>
       </c>
@@ -4156,7 +4165,7 @@
         <v>5.3090000000000004E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28.6</v>
       </c>
@@ -4220,7 +4229,7 @@
         <v>5.5744000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28.6</v>
       </c>
@@ -4284,7 +4293,7 @@
         <v>5.9725999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28.6</v>
       </c>
@@ -4348,7 +4357,7 @@
         <v>6.3708000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28.6</v>
       </c>
@@ -4412,7 +4421,7 @@
         <v>6.6362000000000001E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28.6</v>
       </c>
@@ -4476,7 +4485,7 @@
         <v>6.9017000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>28.6</v>
       </c>
@@ -4540,7 +4549,7 @@
         <v>7.1671E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28.6</v>
       </c>
@@ -4604,7 +4613,7 @@
         <v>7.4326000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28.6</v>
       </c>
@@ -4668,7 +4677,7 @@
         <v>7.4326000000000001E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28.6</v>
       </c>
@@ -4732,7 +4741,7 @@
         <v>7.4326000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28.6</v>
       </c>
@@ -4796,7 +4805,7 @@
         <v>8.2289000000000008E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28.6</v>
       </c>
@@ -4860,7 +4869,7 @@
         <v>9.0253E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28.6</v>
       </c>
@@ -4924,7 +4933,7 @@
         <v>9.9544000000000004E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28.6</v>
       </c>
@@ -4988,7 +4997,7 @@
         <v>1.0618000000000001E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28.6</v>
       </c>
@@ -5066,20 +5075,20 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBE7B48B-E636-4A3E-A1E2-D2CCCD53DAA0}">
-  <dimension ref="A1:U56"/>
+  <dimension ref="A1:U92"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44:S45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>44</v>
       </c>
@@ -5087,7 +5096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>46</v>
       </c>
@@ -5096,7 +5105,7 @@
       </c>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5114,7 +5123,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -5136,7 +5145,7 @@
         <v>0.28019269200000002</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -5158,7 +5167,7 @@
         <v>1.3162826159999999E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -5180,7 +5189,7 @@
         <v>3.5734165999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>52</v>
       </c>
@@ -5188,7 +5197,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -5209,7 +5218,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5223,7 +5232,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>59</v>
       </c>
@@ -5240,7 +5249,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>62</v>
       </c>
@@ -5255,7 +5264,7 @@
         <v>0.10436805954612061</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>64</v>
       </c>
@@ -5277,7 +5286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R15" t="s">
         <v>67</v>
       </c>
@@ -5286,7 +5295,7 @@
         <v>6.0884095527983351E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="R16" t="s">
         <v>68</v>
       </c>
@@ -5295,12 +5304,12 @@
         <v>0.20873611909224121</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="E20" t="s">
         <v>12</v>
@@ -5318,12 +5327,12 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="20"/>
       <c r="D21" t="s">
         <v>75</v>
       </c>
@@ -5342,10 +5351,10 @@
         <v>0.20593248350579579</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
       <c r="D22" t="s">
         <v>76</v>
       </c>
@@ -5356,10 +5365,10 @@
         <v>0.12831561004949249</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
       <c r="D23" t="s">
         <v>77</v>
       </c>
@@ -5388,12 +5397,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
       <c r="D24" t="s">
         <v>75</v>
       </c>
@@ -5420,10 +5429,10 @@
         <v>0.18657116010195385</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="20"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
       <c r="D25" t="s">
         <v>76</v>
       </c>
@@ -5434,10 +5443,10 @@
         <v>0.11871413386154535</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
       <c r="D26" t="s">
         <v>77</v>
       </c>
@@ -5466,12 +5475,12 @@
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="20"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
       <c r="D27" t="s">
         <v>88</v>
       </c>
@@ -5498,10 +5507,10 @@
         <v>0.20873611909224121</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="20"/>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
       <c r="D28" t="s">
         <v>89</v>
       </c>
@@ -5512,10 +5521,10 @@
         <v>0.24502358576622232</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="20"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
       <c r="D29" t="s">
         <v>90</v>
       </c>
@@ -5535,10 +5544,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
       <c r="D30" t="s">
         <v>94</v>
       </c>
@@ -5557,10 +5566,10 @@
         <v>0.12007628313109182</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="20"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
       <c r="D31" t="s">
         <v>95</v>
       </c>
@@ -5571,10 +5580,10 @@
         <v>0.26765440156646719</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
       <c r="D32" t="s">
         <v>96</v>
       </c>
@@ -5585,12 +5594,12 @@
         <v>0.30673862602611612</v>
       </c>
     </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
       <c r="D33" t="s">
         <v>88</v>
       </c>
@@ -5604,10 +5613,10 @@
         <v>98</v>
       </c>
     </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
       <c r="D34" t="s">
         <v>89</v>
       </c>
@@ -5624,10 +5633,10 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
       <c r="D35" t="s">
         <v>94</v>
       </c>
@@ -5644,10 +5653,10 @@
         <v>0.20873611909224121</v>
       </c>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
       <c r="D36" t="s">
         <v>95</v>
       </c>
@@ -5658,12 +5667,12 @@
         <v>0.22840510462964883</v>
       </c>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
       <c r="D37" t="s">
         <v>88</v>
       </c>
@@ -5674,10 +5683,10 @@
         <v>0.29022551216463166</v>
       </c>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
       <c r="D38" t="s">
         <v>89</v>
       </c>
@@ -5699,10 +5708,10 @@
       <c r="O38" s="18"/>
       <c r="P38" s="18"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
       <c r="D39" t="s">
         <v>94</v>
       </c>
@@ -5724,10 +5733,10 @@
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
     </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
       <c r="D40" t="s">
         <v>95</v>
       </c>
@@ -5738,10 +5747,10 @@
         <v>0.27786660720498413</v>
       </c>
     </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
       <c r="D41" t="s">
         <v>102</v>
       </c>
@@ -5767,10 +5776,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
       <c r="D42" t="s">
         <v>103</v>
       </c>
@@ -5796,12 +5805,12 @@
         <v>0.13915741272816082</v>
       </c>
     </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A43" s="20" t="s">
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
       <c r="D43" t="s">
         <v>88</v>
       </c>
@@ -5819,10 +5828,10 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A44" s="19"/>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
       <c r="D44" t="s">
         <v>89</v>
       </c>
@@ -5858,10 +5867,10 @@
         <v>0.54795685975185016</v>
       </c>
     </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A45" s="19"/>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
       <c r="D45" t="s">
         <v>94</v>
       </c>
@@ -5895,10 +5904,10 @@
         <v>0.20873611909224121</v>
       </c>
     </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="19"/>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
       <c r="D46" t="s">
         <v>95</v>
       </c>
@@ -5909,10 +5918,10 @@
         <v>0.26613213584225076</v>
       </c>
     </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="19"/>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
       <c r="D47" t="s">
         <v>102</v>
       </c>
@@ -5941,10 +5950,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="20"/>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="19"/>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
       <c r="D48" t="s">
         <v>103</v>
       </c>
@@ -5971,12 +5980,12 @@
         <v>0.20873611909224121</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="19" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B49" s="19"/>
-      <c r="C49" s="19"/>
+      <c r="B49" s="20"/>
+      <c r="C49" s="20"/>
       <c r="D49" t="s">
         <v>88</v>
       </c>
@@ -5987,10 +5996,10 @@
         <v>0.1115988005739947</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="19"/>
-      <c r="C50" s="19"/>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
+      <c r="B50" s="20"/>
+      <c r="C50" s="20"/>
       <c r="D50" t="s">
         <v>90</v>
       </c>
@@ -6010,10 +6019,10 @@
         <v>93</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="19"/>
-      <c r="C51" s="19"/>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
       <c r="D51" t="s">
         <v>94</v>
       </c>
@@ -6032,10 +6041,10 @@
         <v>0.12007628313109182</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="19"/>
-      <c r="C52" s="19"/>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="20"/>
+      <c r="B52" s="20"/>
+      <c r="C52" s="20"/>
       <c r="D52" t="s">
         <v>96</v>
       </c>
@@ -6046,10 +6055,10 @@
         <v>0.11465973180084084</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="19"/>
-      <c r="C53" s="19"/>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="20"/>
+      <c r="B53" s="20"/>
+      <c r="C53" s="20"/>
       <c r="D53" t="s">
         <v>102</v>
       </c>
@@ -6060,10 +6069,10 @@
         <v>0.10643274612274102</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="19"/>
-      <c r="C54" s="19"/>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="20"/>
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
       <c r="D54" t="s">
         <v>106</v>
       </c>
@@ -6077,7 +6086,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H55" t="s">
         <v>12</v>
       </c>
@@ -6085,7 +6094,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="H56">
         <v>2.737441777221834</v>
       </c>
@@ -6093,8 +6102,508 @@
         <v>0.20873611909224121</v>
       </c>
     </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="20"/>
+      <c r="D59" t="s">
+        <v>75</v>
+      </c>
+      <c r="E59" cm="1">
+        <f t="array" ref="E59:E92">TableKTau[K]/$D$7</f>
+        <v>2.7920236760438475</v>
+      </c>
+      <c r="F59" cm="1">
+        <f t="array" ref="F59:F92">TableKTau[tau]</f>
+        <v>0.11300773623416552</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="20"/>
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" t="s">
+        <v>76</v>
+      </c>
+      <c r="E60">
+        <v>2.9490034134138443</v>
+      </c>
+      <c r="F60">
+        <v>0.12831561004949249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
+      <c r="C61" s="20"/>
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61">
+        <v>2.8873057536891409</v>
+      </c>
+      <c r="F61">
+        <v>0.13257938694168003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="20"/>
+      <c r="D62" t="s">
+        <v>75</v>
+      </c>
+      <c r="E62">
+        <v>2.9663819840233887</v>
+      </c>
+      <c r="F62">
+        <v>0.11835754393859672</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63">
+        <v>2.8490994040417053</v>
+      </c>
+      <c r="F63">
+        <v>0.11871413386154535</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="20"/>
+      <c r="B64" s="20"/>
+      <c r="C64" s="20"/>
+      <c r="D64" t="s">
+        <v>77</v>
+      </c>
+      <c r="E64">
+        <v>2.7588130052566999</v>
+      </c>
+      <c r="F64">
+        <v>0.1141781420060177</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A65" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="19"/>
+      <c r="C65" s="19"/>
+      <c r="D65" t="s">
+        <v>88</v>
+      </c>
+      <c r="E65">
+        <v>2.7359048554552676</v>
+      </c>
+      <c r="F65">
+        <v>0.23952919227159195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A66" s="19"/>
+      <c r="B66" s="19"/>
+      <c r="C66" s="19"/>
+      <c r="D66" t="s">
+        <v>89</v>
+      </c>
+      <c r="E66">
+        <v>2.7456645367251906</v>
+      </c>
+      <c r="F66">
+        <v>0.24502358576622232</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A67" s="19"/>
+      <c r="B67" s="19"/>
+      <c r="C67" s="19"/>
+      <c r="D67" t="s">
+        <v>90</v>
+      </c>
+      <c r="E67">
+        <v>2.7061190549289793</v>
+      </c>
+      <c r="F67">
+        <v>0.27028184730098243</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A68" s="19"/>
+      <c r="B68" s="19"/>
+      <c r="C68" s="19"/>
+      <c r="D68" t="s">
+        <v>94</v>
+      </c>
+      <c r="E68">
+        <v>2.7579468431553029</v>
+      </c>
+      <c r="F68">
+        <v>0.28887046568166619</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A69" s="19"/>
+      <c r="B69" s="19"/>
+      <c r="C69" s="19"/>
+      <c r="D69" t="s">
+        <v>95</v>
+      </c>
+      <c r="E69">
+        <v>2.5792518716824966</v>
+      </c>
+      <c r="F69">
+        <v>0.26765440156646719</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A70" s="19"/>
+      <c r="B70" s="19"/>
+      <c r="C70" s="19"/>
+      <c r="D70" t="s">
+        <v>96</v>
+      </c>
+      <c r="E70">
+        <v>2.7300346741168773</v>
+      </c>
+      <c r="F70">
+        <v>0.30673862602611612</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A71" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
+      <c r="D71" t="s">
+        <v>88</v>
+      </c>
+      <c r="E71">
+        <v>2.6985685824314598</v>
+      </c>
+      <c r="F71">
+        <v>0.22089332806407641</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A72" s="19"/>
+      <c r="B72" s="19"/>
+      <c r="C72" s="19"/>
+      <c r="D72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72">
+        <v>2.8147436280830793</v>
+      </c>
+      <c r="F72">
+        <v>0.22617252526873988</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A73" s="19"/>
+      <c r="B73" s="19"/>
+      <c r="C73" s="19"/>
+      <c r="D73" t="s">
+        <v>94</v>
+      </c>
+      <c r="E73">
+        <v>2.7332114190753365</v>
+      </c>
+      <c r="F73">
+        <v>0.27041016404261886</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" s="19"/>
+      <c r="B74" s="19"/>
+      <c r="C74" s="19"/>
+      <c r="D74" t="s">
+        <v>95</v>
+      </c>
+      <c r="E74">
+        <v>2.8160319117967645</v>
+      </c>
+      <c r="F74">
+        <v>0.22840510462964883</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B75" s="19"/>
+      <c r="C75" s="19"/>
+      <c r="D75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75">
+        <v>2.563895694091602</v>
+      </c>
+      <c r="F75">
+        <v>0.29022551216463166</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A76" s="19"/>
+      <c r="B76" s="19"/>
+      <c r="C76" s="19"/>
+      <c r="D76" t="s">
+        <v>89</v>
+      </c>
+      <c r="E76">
+        <v>2.42701114117737</v>
+      </c>
+      <c r="F76">
+        <v>0.25097722229899871</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A77" s="19"/>
+      <c r="B77" s="19"/>
+      <c r="C77" s="19"/>
+      <c r="D77" t="s">
+        <v>94</v>
+      </c>
+      <c r="E77">
+        <v>2.6151936583335114</v>
+      </c>
+      <c r="F77">
+        <v>0.28158416065100444</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A78" s="19"/>
+      <c r="B78" s="19"/>
+      <c r="C78" s="19"/>
+      <c r="D78" t="s">
+        <v>95</v>
+      </c>
+      <c r="E78">
+        <v>2.6677553978510389</v>
+      </c>
+      <c r="F78">
+        <v>0.27786660720498413</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="19"/>
+      <c r="B79" s="19"/>
+      <c r="C79" s="19"/>
+      <c r="D79" t="s">
+        <v>102</v>
+      </c>
+      <c r="E79">
+        <v>2.6757377687866124</v>
+      </c>
+      <c r="F79">
+        <v>0.21701158366076351</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A80" s="19"/>
+      <c r="B80" s="19"/>
+      <c r="C80" s="19"/>
+      <c r="D80" t="s">
+        <v>103</v>
+      </c>
+      <c r="E80">
+        <v>2.5826527668036623</v>
+      </c>
+      <c r="F80">
+        <v>0.22247153068135431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B81" s="19"/>
+      <c r="C81" s="19"/>
+      <c r="D81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81">
+        <v>2.5908273900004737</v>
+      </c>
+      <c r="F81">
+        <v>0.23677761057116098</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="19"/>
+      <c r="B82" s="19"/>
+      <c r="C82" s="19"/>
+      <c r="D82" t="s">
+        <v>89</v>
+      </c>
+      <c r="E82">
+        <v>2.5332289292683194</v>
+      </c>
+      <c r="F82">
+        <v>0.21720021985441101</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="19"/>
+      <c r="B83" s="19"/>
+      <c r="C83" s="19"/>
+      <c r="D83" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83">
+        <v>2.8198705200999226</v>
+      </c>
+      <c r="F83">
+        <v>0.23660506553423905</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="19"/>
+      <c r="B84" s="19"/>
+      <c r="C84" s="19"/>
+      <c r="D84" t="s">
+        <v>95</v>
+      </c>
+      <c r="E84">
+        <v>2.7850501825807137</v>
+      </c>
+      <c r="F84">
+        <v>0.26613213584225076</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="19"/>
+      <c r="B85" s="19"/>
+      <c r="C85" s="19"/>
+      <c r="D85" t="s">
+        <v>102</v>
+      </c>
+      <c r="E85">
+        <v>2.5917162853470472</v>
+      </c>
+      <c r="F85">
+        <v>0.24860888758315808</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="19"/>
+      <c r="B86" s="19"/>
+      <c r="C86" s="19"/>
+      <c r="D86" t="s">
+        <v>103</v>
+      </c>
+      <c r="E86">
+        <v>2.5560320674706567</v>
+      </c>
+      <c r="F86">
+        <v>0.25134926495886883</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="20"/>
+      <c r="D87" t="s">
+        <v>88</v>
+      </c>
+      <c r="E87">
+        <v>2.9901052807519268</v>
+      </c>
+      <c r="F87">
+        <v>0.1115988005739947</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="20"/>
+      <c r="B88" s="20"/>
+      <c r="C88" s="20"/>
+      <c r="D88" t="s">
+        <v>90</v>
+      </c>
+      <c r="E88">
+        <v>3.0285477086754988</v>
+      </c>
+      <c r="F88">
+        <v>0.14935221417686353</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="20"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="20"/>
+      <c r="D89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89">
+        <v>2.6673446306736195</v>
+      </c>
+      <c r="F89">
+        <v>9.2750699468103728E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="20"/>
+      <c r="B90" s="20"/>
+      <c r="C90" s="20"/>
+      <c r="D90" t="s">
+        <v>96</v>
+      </c>
+      <c r="E90">
+        <v>2.951610089855512</v>
+      </c>
+      <c r="F90">
+        <v>0.11465973180084084</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="20"/>
+      <c r="B91" s="20"/>
+      <c r="C91" s="20"/>
+      <c r="D91" t="s">
+        <v>102</v>
+      </c>
+      <c r="E91">
+        <v>2.7908866594563135</v>
+      </c>
+      <c r="F91">
+        <v>0.10643274612274102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="20"/>
+      <c r="B92" s="20"/>
+      <c r="C92" s="20"/>
+      <c r="D92" t="s">
+        <v>106</v>
+      </c>
+      <c r="E92">
+        <v>2.7268377193526945</v>
+      </c>
+      <c r="F92">
+        <v>0.14096865239906034</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="16">
     <mergeCell ref="H38:P38"/>
     <mergeCell ref="H39:P39"/>
     <mergeCell ref="A49:C54"/>
@@ -6104,6 +6613,13 @@
     <mergeCell ref="A33:C36"/>
     <mergeCell ref="A43:C48"/>
     <mergeCell ref="A37:C42"/>
+    <mergeCell ref="A81:C86"/>
+    <mergeCell ref="A87:C92"/>
+    <mergeCell ref="A59:C61"/>
+    <mergeCell ref="A62:C64"/>
+    <mergeCell ref="A65:C70"/>
+    <mergeCell ref="A71:C74"/>
+    <mergeCell ref="A75:C80"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6126,14 +6642,14 @@
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>48</v>
       </c>
@@ -6147,7 +6663,7 @@
         <v>1.3740000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -6161,7 +6677,7 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -6169,7 +6685,7 @@
         <v>1.3162826159999999E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -6177,7 +6693,7 @@
         <v>3.5734165999999998E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>109</v>
       </c>
@@ -6212,7 +6728,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -6254,7 +6770,7 @@
         <v>0.24836984591137898</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
@@ -6296,7 +6812,7 @@
         <v>0.23486031672103619</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -6338,7 +6854,7 @@
         <v>0.12085875883858295</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -6346,7 +6862,7 @@
         <v>3.5734165999999998E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>121</v>
       </c>
@@ -6381,7 +6897,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -6423,7 +6939,7 @@
         <v>0.24836984591137898</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>49</v>
       </c>
@@ -6465,7 +6981,7 @@
         <v>0.23486031672103619</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>50</v>
       </c>
@@ -6507,7 +7023,7 @@
         <v>0.12085875883858295</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
         <v>51</v>
       </c>
@@ -6515,7 +7031,7 @@
         <v>3.5734165999999998E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>122</v>
       </c>
@@ -6550,7 +7066,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>48</v>
       </c>
@@ -6592,7 +7108,7 @@
         <v>0.24836984591137898</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>49</v>
       </c>
@@ -6634,7 +7150,7 @@
         <v>0.23486031672103619</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>50</v>
       </c>
@@ -6676,7 +7192,7 @@
         <v>0.12085875883858295</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -6684,7 +7200,7 @@
         <v>3.5734165999999998E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>123</v>
       </c>
@@ -6719,7 +7235,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>48</v>
       </c>
@@ -6761,7 +7277,7 @@
         <v>0.24836984591137898</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -6803,7 +7319,7 @@
         <v>0.23486031672103619</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -6845,7 +7361,7 @@
         <v>0.12085875883858295</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -6853,7 +7369,7 @@
         <v>3.5734165999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>124</v>
       </c>
@@ -6888,7 +7404,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>48</v>
       </c>
@@ -6930,7 +7446,7 @@
         <v>0.24836984591137898</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>49</v>
       </c>
@@ -6972,7 +7488,7 @@
         <v>0.23486031672103619</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>50</v>
       </c>
@@ -7014,7 +7530,7 @@
         <v>0.12085875883858295</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -7022,7 +7538,7 @@
         <v>3.5734165999999998E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
         <v>107</v>
       </c>
@@ -7030,7 +7546,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>125</v>
       </c>
@@ -7065,7 +7581,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -7107,7 +7623,7 @@
         <v>0.24836984591137898</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -7149,7 +7665,7 @@
         <v>0.23486031672103619</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -7191,7 +7707,7 @@
         <v>0.12085875883858295</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -7203,7 +7719,7 @@
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
         <v>107</v>
       </c>
@@ -7211,7 +7727,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>108</v>
       </c>
@@ -7228,14 +7744,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ECDB5B9-FD29-40E5-8BFD-68F4AFFDF1A7}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.85546875" style="13"/>
+    <col min="1" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>48</v>
       </c>
@@ -7261,7 +7777,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
         <v>49</v>
       </c>
@@ -7290,7 +7806,7 @@
         <v>0.23549999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
@@ -7319,7 +7835,7 @@
         <v>0.23699999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>51</v>
       </c>
@@ -7348,7 +7864,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
         <v>107</v>
       </c>
@@ -7356,7 +7872,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>108</v>
       </c>
@@ -7364,12 +7880,12 @@
         <v>27.1</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
         <v>127</v>
       </c>
@@ -7384,7 +7900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
         <v>70</v>
       </c>
@@ -7400,7 +7916,7 @@
         <v>0.1322088888888889</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
         <v>128</v>
       </c>
@@ -7415,7 +7931,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>67</v>
       </c>
@@ -7424,7 +7940,7 @@
         <v>0.57293457087200639</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>68</v>
       </c>
@@ -7433,7 +7949,7 @@
         <v>0.19831333333333334</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B16" s="13" t="s">
         <v>129</v>
       </c>
@@ -7447,7 +7963,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
         <v>12</v>
       </c>
@@ -7461,7 +7977,7 @@
         <v>2.3906000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>70</v>
       </c>
@@ -7475,12 +7991,12 @@
         <v>0.12031</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B24" s="13" t="s">
         <v>129</v>
       </c>
@@ -7500,7 +8016,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
         <v>12</v>
       </c>
@@ -7526,7 +8042,7 @@
         <v>9.9501999999999993E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B26" s="13">
         <v>0.97863999999999995</v>
       </c>
@@ -7546,7 +8062,7 @@
         <v>0.10023</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B27" s="13">
         <v>1.0086999999999999</v>
       </c>
@@ -7566,7 +8082,7 @@
         <v>9.8732E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
         <v>134</v>
       </c>
@@ -7598,7 +8114,7 @@
         <v>9.9488000000000007E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>12</v>
       </c>
@@ -7615,7 +8131,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B31" s="13" t="s">
         <v>129</v>
       </c>
@@ -7632,7 +8148,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
         <v>139</v>
       </c>
@@ -7656,7 +8172,7 @@
         <v>-2.34</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>141</v>
       </c>
@@ -7680,7 +8196,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
         <v>143</v>
       </c>
@@ -7691,7 +8207,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B36" s="13" t="s">
         <v>129</v>
       </c>
@@ -7702,7 +8218,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
         <v>67</v>
       </c>
@@ -7728,7 +8244,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
         <v>148</v>
       </c>
@@ -7770,24 +8286,24 @@
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -7795,7 +8311,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7803,7 +8319,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7811,7 +8327,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -7819,7 +8335,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -7827,7 +8343,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -7854,7 +8370,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -7880,7 +8396,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" t="e" cm="1">
         <f t="array" ref="J10">LINEST(K13:K13,J13:J13)</f>
         <v>#VALUE!</v>
@@ -7894,7 +8410,7 @@
       </c>
       <c r="U10" s="3"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -7951,7 +8467,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="E13" s="5"/>
       <c r="F13">
         <f>E13*60/($D$5*$D$6*$D$7)</f>
@@ -8000,24 +8516,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8025,7 +8541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8036,7 +8552,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -8047,7 +8563,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -8055,7 +8571,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -8063,7 +8579,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -8090,7 +8606,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -8116,7 +8632,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K43,J13:J43)</f>
         <v>1.9410550996977434</v>
@@ -8144,7 +8660,7 @@
         <v>4.2246091000000003E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -8201,7 +8717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.9</v>
       </c>
@@ -8262,7 +8778,7 @@
         <v>3.8419999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.85</v>
       </c>
@@ -8323,7 +8839,7 @@
         <v>4.1374999999999997E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.8</v>
       </c>
@@ -8384,7 +8900,7 @@
         <v>4.4330000000000003E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.8</v>
       </c>
@@ -8445,7 +8961,7 @@
         <v>4.4330000000000003E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.8</v>
       </c>
@@ -8506,7 +9022,7 @@
         <v>4.7286000000000003E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.8</v>
       </c>
@@ -8567,7 +9083,7 @@
         <v>5.0241000000000001E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.8</v>
       </c>
@@ -8628,7 +9144,7 @@
         <v>5.3195999999999998E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.8</v>
       </c>
@@ -8689,7 +9205,7 @@
         <v>5.6151999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28.8</v>
       </c>
@@ -8750,7 +9266,7 @@
         <v>5.9106999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28.8</v>
       </c>
@@ -8811,7 +9327,7 @@
         <v>5.9106999999999996E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28.8</v>
       </c>
@@ -8872,7 +9388,7 @@
         <v>5.6151999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28.8</v>
       </c>
@@ -8933,7 +9449,7 @@
         <v>5.6151999999999999E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28.7</v>
       </c>
@@ -8994,7 +9510,7 @@
         <v>5.6151999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>28.7</v>
       </c>
@@ -9055,7 +9571,7 @@
         <v>5.9106999999999996E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28.7</v>
       </c>
@@ -9116,7 +9632,7 @@
         <v>5.6151999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28.7</v>
       </c>
@@ -9177,7 +9693,7 @@
         <v>5.6151999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28.7</v>
       </c>
@@ -9238,7 +9754,7 @@
         <v>5.9106999999999996E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28.7</v>
       </c>
@@ -9299,7 +9815,7 @@
         <v>5.9106999999999996E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28.7</v>
       </c>
@@ -9360,7 +9876,7 @@
         <v>6.2062000000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28.7</v>
       </c>
@@ -9421,7 +9937,7 @@
         <v>6.5018000000000003E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28.7</v>
       </c>
@@ -9482,7 +9998,7 @@
         <v>6.5018000000000003E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28.7</v>
       </c>
@@ -9543,7 +10059,7 @@
         <v>6.7973E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>28.65</v>
       </c>
@@ -9604,7 +10120,7 @@
         <v>6.7973E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28.6</v>
       </c>
@@ -9665,7 +10181,7 @@
         <v>6.7973E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>28.6</v>
       </c>
@@ -9726,7 +10242,7 @@
         <v>7.0929000000000001E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>28.6</v>
       </c>
@@ -9787,7 +10303,7 @@
         <v>7.0929000000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>28.6</v>
       </c>
@@ -9848,7 +10364,7 @@
         <v>7.0929000000000001E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>28.6</v>
       </c>
@@ -9909,7 +10425,7 @@
         <v>7.0929000000000001E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>28.6</v>
       </c>
@@ -9970,7 +10486,7 @@
         <v>7.0929000000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>28.6</v>
       </c>
@@ -10031,7 +10547,7 @@
         <v>7.3883999999999998E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>28.6</v>
       </c>
@@ -10110,24 +10626,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -10135,7 +10651,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -10146,7 +10662,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -10157,7 +10673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -10168,7 +10684,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -10176,7 +10692,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -10203,7 +10719,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -10229,7 +10745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K28,J13:J28)</f>
         <v>5.1705543259048428</v>
@@ -10257,7 +10773,7 @@
         <v>3.1791397999999999E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -10314,7 +10830,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.5</v>
       </c>
@@ -10375,7 +10891,7 @@
         <v>2.9139999999999999E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.5</v>
       </c>
@@ -10436,7 +10952,7 @@
         <v>3.7881999999999998E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.5</v>
       </c>
@@ -10497,7 +11013,7 @@
         <v>4.0796000000000001E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.5</v>
       </c>
@@ -10558,7 +11074,7 @@
         <v>4.6623999999999997E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.5</v>
       </c>
@@ -10619,7 +11135,7 @@
         <v>4.6623999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.5</v>
       </c>
@@ -10680,7 +11196,7 @@
         <v>4.6623999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.5</v>
       </c>
@@ -10741,7 +11257,7 @@
         <v>4.9538000000000004E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.5</v>
       </c>
@@ -10802,7 +11318,7 @@
         <v>5.2452000000000002E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28.6</v>
       </c>
@@ -10863,7 +11379,7 @@
         <v>5.5366E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28.6</v>
       </c>
@@ -10924,7 +11440,7 @@
         <v>5.8279999999999998E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28.6</v>
       </c>
@@ -10985,7 +11501,7 @@
         <v>6.1193999999999997E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28.6</v>
       </c>
@@ -11046,7 +11562,7 @@
         <v>6.4108000000000004E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28.7</v>
       </c>
@@ -11107,7 +11623,7 @@
         <v>6.7022000000000002E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>28.7</v>
       </c>
@@ -11168,7 +11684,7 @@
         <v>6.9936E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28.7</v>
       </c>
@@ -11229,7 +11745,7 @@
         <v>7.2849999999999998E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28.7</v>
       </c>
@@ -11308,24 +11824,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -11333,7 +11849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11344,7 +11860,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -11355,7 +11871,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -11366,7 +11882,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -11374,7 +11890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -11401,7 +11917,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -11427,7 +11943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K20,J13:J20)</f>
         <v>1.8510416714004299</v>
@@ -11446,7 +11962,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -11503,7 +12019,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.9</v>
       </c>
@@ -11555,7 +12071,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>29</v>
       </c>
@@ -11607,7 +12123,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.9</v>
       </c>
@@ -11659,7 +12175,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>29</v>
       </c>
@@ -11711,7 +12227,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.8</v>
       </c>
@@ -11763,7 +12279,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.8</v>
       </c>
@@ -11815,7 +12331,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.8</v>
       </c>
@@ -11867,7 +12383,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.8</v>
       </c>
@@ -11937,24 +12453,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -11962,7 +12478,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -11973,7 +12489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -11984,7 +12500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -11995,7 +12511,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12003,7 +12519,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -12030,7 +12546,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -12056,7 +12572,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K18,J13:J18)</f>
         <v>1.6402520803419827</v>
@@ -12075,7 +12591,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -12132,7 +12648,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.8</v>
       </c>
@@ -12184,7 +12700,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.8</v>
       </c>
@@ -12236,7 +12752,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.75</v>
       </c>
@@ -12288,7 +12804,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.7</v>
       </c>
@@ -12340,7 +12856,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.7</v>
       </c>
@@ -12392,7 +12908,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.7</v>
       </c>
@@ -12462,24 +12978,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -12487,7 +13003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -12498,7 +13014,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -12509,7 +13025,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -12520,7 +13036,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -12528,7 +13044,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -12555,7 +13071,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -12581,7 +13097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K36,J13:J36)</f>
         <v>3.4078771773825944</v>
@@ -12609,7 +13125,7 @@
         <v>3.0887636999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -12666,7 +13182,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.8</v>
       </c>
@@ -12730,7 +13246,7 @@
         <v>2.4431000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.8</v>
       </c>
@@ -12794,7 +13310,7 @@
         <v>2.9859999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.8</v>
       </c>
@@ -12858,7 +13374,7 @@
         <v>3.2575E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.8</v>
       </c>
@@ -12922,7 +13438,7 @@
         <v>3.8003999999999998E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.8</v>
       </c>
@@ -12986,7 +13502,7 @@
         <v>3.9360999999999997E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.8</v>
       </c>
@@ -13050,7 +13566,7 @@
         <v>4.0718000000000004E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.8</v>
       </c>
@@ -13114,7 +13630,7 @@
         <v>4.3432999999999996E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.8</v>
       </c>
@@ -13178,7 +13694,7 @@
         <v>4.4790000000000003E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28.8</v>
       </c>
@@ -13242,7 +13758,7 @@
         <v>4.6147999999999996E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28.8</v>
       </c>
@@ -13306,7 +13822,7 @@
         <v>4.8862000000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28.8</v>
       </c>
@@ -13370,7 +13886,7 @@
         <v>5.0219000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28.8</v>
       </c>
@@ -13434,7 +13950,7 @@
         <v>5.1577000000000003E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28.8</v>
       </c>
@@ -13498,7 +14014,7 @@
         <v>5.4291000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>28.8</v>
       </c>
@@ -13562,7 +14078,7 @@
         <v>5.5648E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28.8</v>
       </c>
@@ -13626,7 +14142,7 @@
         <v>5.7006000000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28.8</v>
       </c>
@@ -13690,7 +14206,7 @@
         <v>5.8363E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28.8</v>
       </c>
@@ -13754,7 +14270,7 @@
         <v>5.9719999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28.8</v>
       </c>
@@ -13818,7 +14334,7 @@
         <v>5.9719999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28.8</v>
       </c>
@@ -13882,7 +14398,7 @@
         <v>5.9719999999999999E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28.8</v>
       </c>
@@ -13946,7 +14462,7 @@
         <v>6.2434999999999999E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28.8</v>
       </c>
@@ -14010,7 +14526,7 @@
         <v>6.5148999999999997E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28.8</v>
       </c>
@@ -14074,7 +14590,7 @@
         <v>6.7863999999999997E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>28.8</v>
       </c>
@@ -14138,7 +14654,7 @@
         <v>7.0578999999999998E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>28.75</v>
       </c>
@@ -14220,24 +14736,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -14245,7 +14761,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -14256,7 +14772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -14267,7 +14783,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -14278,7 +14794,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -14286,7 +14802,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -14313,7 +14829,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -14339,7 +14855,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K25,J13:J25)</f>
         <v>2.9553551882063744</v>
@@ -14358,7 +14874,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -14415,7 +14931,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.3</v>
       </c>
@@ -14467,7 +14983,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.3</v>
       </c>
@@ -14519,7 +15035,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.3</v>
       </c>
@@ -14571,7 +15087,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.3</v>
       </c>
@@ -14623,7 +15139,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.3</v>
       </c>
@@ -14675,7 +15191,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.3</v>
       </c>
@@ -14727,7 +15243,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.4</v>
       </c>
@@ -14779,7 +15295,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.4</v>
       </c>
@@ -14831,7 +15347,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28.4</v>
       </c>
@@ -14883,7 +15399,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28.4</v>
       </c>
@@ -14935,7 +15451,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28.4</v>
       </c>
@@ -14987,7 +15503,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28.4</v>
       </c>
@@ -15039,7 +15555,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28.4</v>
       </c>
@@ -15111,24 +15627,24 @@
       <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -15136,7 +15652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -15147,7 +15663,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -15158,7 +15674,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -15169,7 +15685,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -15177,7 +15693,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -15204,7 +15720,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -15230,7 +15746,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K35,J13:J35)</f>
         <v>2.2171768334713233</v>
@@ -15258,7 +15774,7 @@
         <v>3.0454586999999998E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -15315,7 +15831,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.7</v>
       </c>
@@ -15379,7 +15895,7 @@
         <v>2.2371000000000001E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.7</v>
       </c>
@@ -15443,7 +15959,7 @@
         <v>2.7964000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.7</v>
       </c>
@@ -15507,7 +16023,7 @@
         <v>3.3555999999999998E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.7</v>
       </c>
@@ -15571,7 +16087,7 @@
         <v>3.6353000000000002E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.7</v>
       </c>
@@ -15635,7 +16151,7 @@
         <v>3.9148999999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.7</v>
       </c>
@@ -15699,7 +16215,7 @@
         <v>4.1945999999999997E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.7</v>
       </c>
@@ -15763,7 +16279,7 @@
         <v>4.4742000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.7</v>
       </c>
@@ -15827,7 +16343,7 @@
         <v>4.7537999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28.7</v>
       </c>
@@ -15891,7 +16407,7 @@
         <v>5.0334999999999998E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28.7</v>
       </c>
@@ -15955,7 +16471,7 @@
         <v>5.3131000000000003E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28.7</v>
       </c>
@@ -16019,7 +16535,7 @@
         <v>5.5926999999999999E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28.7</v>
       </c>
@@ -16083,7 +16599,7 @@
         <v>5.8723999999999998E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28.7</v>
       </c>
@@ -16147,7 +16663,7 @@
         <v>6.1520000000000004E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>28.7</v>
       </c>
@@ -16211,7 +16727,7 @@
         <v>6.2918000000000002E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>28.7</v>
       </c>
@@ -16275,7 +16791,7 @@
         <v>6.4316E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>28.7</v>
       </c>
@@ -16339,7 +16855,7 @@
         <v>6.7112999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28.7</v>
       </c>
@@ -16403,7 +16919,7 @@
         <v>6.9909000000000004E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>28.7</v>
       </c>
@@ -16467,7 +16983,7 @@
         <v>6.9909000000000004E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>28.7</v>
       </c>
@@ -16531,7 +17047,7 @@
         <v>7.2706000000000003E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28.7</v>
       </c>
@@ -16595,7 +17111,7 @@
         <v>7.2706000000000003E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>28.7</v>
       </c>
@@ -16659,7 +17175,7 @@
         <v>7.5502E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>28.7</v>
       </c>
@@ -16723,7 +17239,7 @@
         <v>7.8297999999999996E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>28.7</v>
       </c>
@@ -16805,24 +17321,24 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="9" max="9" width="2.7109375" customWidth="1"/>
-    <col min="10" max="11" width="12.7109375" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="16" width="2.7109375" customWidth="1"/>
-    <col min="17" max="19" width="12.7109375" customWidth="1"/>
-    <col min="20" max="20" width="2.7109375" customWidth="1"/>
-    <col min="21" max="23" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="2.6640625" customWidth="1"/>
+    <col min="10" max="11" width="12.6640625" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
+    <col min="13" max="14" width="12.6640625" customWidth="1"/>
+    <col min="15" max="16" width="2.6640625" customWidth="1"/>
+    <col min="17" max="19" width="12.6640625" customWidth="1"/>
+    <col min="20" max="20" width="2.6640625" customWidth="1"/>
+    <col min="21" max="23" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -16830,7 +17346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -16841,7 +17357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -16852,7 +17368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -16863,7 +17379,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -16871,7 +17387,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -16898,7 +17414,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J9" t="s">
         <v>11</v>
       </c>
@@ -16924,7 +17440,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="J10" cm="1">
         <f t="array" ref="J10:K10">LINEST(K13:K25,J13:J25)</f>
         <v>3.561185024477223</v>
@@ -16943,7 +17459,7 @@
       <c r="U10" s="6"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
         <v>15</v>
       </c>
@@ -17000,7 +17516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>28.3</v>
       </c>
@@ -17052,7 +17568,7 @@
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>28.3</v>
       </c>
@@ -17104,7 +17620,7 @@
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>28.4</v>
       </c>
@@ -17156,7 +17672,7 @@
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>28.4</v>
       </c>
@@ -17208,7 +17724,7 @@
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>28.4</v>
       </c>
@@ -17260,7 +17776,7 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>28.4</v>
       </c>
@@ -17312,7 +17828,7 @@
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>28.4</v>
       </c>
@@ -17364,7 +17880,7 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>28.4</v>
       </c>
@@ -17416,7 +17932,7 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>28.4</v>
       </c>
@@ -17468,7 +17984,7 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>28.4</v>
       </c>
@@ -17520,7 +18036,7 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>28.4</v>
       </c>
@@ -17572,7 +18088,7 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>28.5</v>
       </c>
@@ -17624,7 +18140,7 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>28.5</v>
       </c>
